--- a/output/google_maps_data_Dubai_restaurants.xlsx
+++ b/output/google_maps_data_Dubai_restaurants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,103 +478,507 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nusr-Et Steakhouse Dubai</t>
+          <t>Bebek Restaurant | Turkish &amp; International</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Restaurant Village Four Seasons Resort شارع شاطئ - Jumeirah - Jumeirah 2 - Dubai - United Arab Emirates</t>
+          <t>Villa 531 Jumeirah Beach Road - Jumeirah - Jumeirah 3 - Dubai - United Arab Emirates</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nusr-et.com.tr</t>
+          <t>bebekrestaurant.ae</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+971 4 407 4100</t>
+          <t>+971 4 349 0024</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5787</v>
+        <v>2440</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>25.1889076</v>
+        <v>32.6251199</v>
       </c>
       <c r="H2" t="n">
-        <v>55.1469783</v>
+        <v>31.4823563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ILOLI - Restaurant in Dubai Marina Walk</t>
+          <t>Praia | Beach Restaurant &amp; Lounge | FIVE Palm Jumeirah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dubai Marina Walk - Al Daa'i St - Dubai Marina - Dubai - United Arab Emirates</t>
+          <t>No. 1 Palm Jumeirah - Dubai - Dubai - United Arab Emirates</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ilolidubai.com</t>
+          <t>praiadxb.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+971 50 707 7917</t>
+          <t>+971 4 455 9989</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>578</v>
+        <v>3241</v>
       </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>25.0857253</v>
+        <v>32.6251199</v>
       </c>
       <c r="H3" t="n">
-        <v>55.0005684</v>
+        <v>31.4823563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>address Dubai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yeşilpınar, Şht. Metin Kaya Sk. Vialand, 34065 Eyüp/Eyüpsultan/İstanbul</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(0212) 631 60 00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.0748309</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.4676907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dinner In The Sky</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Al Sufoh - Al Seyahi St - next to zero gravity - Skydive - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dinnerinthesky.ae</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+971 58 819 3296</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3548</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Couqley French Brasserie Downtown Dubai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marasi Dr - Business Bay - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>couqley.ae</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+971 4 514 9339</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3 Fils</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jumeirah Fishing Harbour - Shop 02 - 1 Al Urouba St - Jumeirah 2 - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3fils.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+971 56 273 0030</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5244</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>CÉ LA VI</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Tower 2 - Level 54, Address Sky View Hotel - Sheikh Mohammed bin Rashid Blvd - Dubai - United Arab Emirates</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>celavi.com</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>+971 4 582 6111</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>5573</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E8" t="n">
+        <v>6289</v>
+      </c>
+      <c r="F8" t="n">
         <v>4.5</v>
       </c>
-      <c r="G4" t="n">
-        <v>25.2015141</v>
-      </c>
-      <c r="H4" t="n">
-        <v>55.1269212</v>
+      <c r="G8" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Krasota Dubai Restaurant</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Address Downtown - G Floor Sheikh Mohammed bin Rashid Blvd - Downtown Dubai - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>krasota.art</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+971 4 433 1258</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1061</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Maison De Curry</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Souk Al Bahar - Sheikh Mohammed bin Rashid Blvd - Downtown Dubai - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>maisondecurry.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>+971 52 406 6183</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4463</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Babel Dubai</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Dubai Mall - Fashion Avenue - 1st Floor Financial Ctr St - Downtown Dubai - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>babelrestaurant.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+971 4 431 2333</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BASTA!</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The St. Regis Downtown, Dubai - Marasi Dr - Business Bay - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>basta-dubai.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>+971 4 512 5522</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sardina Seafood Restaurant</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Opposite Jumeirah Beach Resort - The Mall, 1st Floor - Jumeira St - Umm Suqeim 3 - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sardina.ae</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+971 4 339 0444</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4494</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H13" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZouZou Turkish &amp; Lebanese Restaurant | Jumeirah 1 Opposite Lamer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jumeria 1, Jumeria Rd - 47A St - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bamenus.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+971 4 343 0093</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>14001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H14" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The MAINE Land Brasserie Restaurant, Business Bay Dubai</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Opus by Omniyat - Ground Floor - Al A'amal St - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>themaine.ae</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+971 4 577 6680</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36.6799014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The Tap House Downtown</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Souk Al Bahar - Downtown Dubai - Dubai - United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>thetaphouse.ae</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>+971 4 425 0009</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1937</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.089669</v>
+      </c>
+      <c r="H16" t="n">
+        <v>36.6799014</v>
       </c>
     </row>
   </sheetData>
